--- a/File/TESTCASES_CUBE_LOGIN.xlsx
+++ b/File/TESTCASES_CUBE_LOGIN.xlsx
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,69 +80,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,7 +126,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,37 +203,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,21 +223,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,43 +233,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,139 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +438,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,35 +507,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,162 +524,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/File/TESTCASES_CUBE_LOGIN.xlsx
+++ b/File/TESTCASES_CUBE_LOGIN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -31,7 +31,16 @@
     <t>MESSAGE</t>
   </si>
   <si>
-    <t>to verify Null value</t>
+    <t>To Verify Login with whitespace in Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 CGC5606</t>
+  </si>
+  <si>
+    <t>abc1234#</t>
+  </si>
+  <si>
+    <t>To Verify Login with empty Login ID</t>
   </si>
   <si>
     <t>.</t>
@@ -40,25 +49,28 @@
     <t>Invalid Login Id or Password.</t>
   </si>
   <si>
-    <t>to verify wrong login</t>
+    <t>To Verify Login with both empty fields</t>
+  </si>
+  <si>
+    <t>To Verify Login with invalid Login ID</t>
   </si>
   <si>
     <t>CGC24221</t>
   </si>
   <si>
-    <t>abc1234#</t>
-  </si>
-  <si>
-    <t>to verify wrong password</t>
+    <t>To Verify Login with invalid Password</t>
   </si>
   <si>
     <t>cgc24221</t>
   </si>
   <si>
-    <t xml:space="preserve">to verify corect login </t>
-  </si>
-  <si>
-    <t>CGH1736</t>
+    <t>To Verify Login with valid credentials</t>
+  </si>
+  <si>
+    <t>CGC24211</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -66,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,7 +100,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -97,7 +193,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,13 +216,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,101 +229,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,19 +245,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,163 +389,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,45 +436,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,8 +492,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,142 +541,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,15 +1015,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="22.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="32.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1032,72 +1047,112 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/File/TESTCASES_CUBE_LOGIN.xlsx
+++ b/File/TESTCASES_CUBE_LOGIN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -67,10 +67,7 @@
     <t>To Verify Login with valid credentials</t>
   </si>
   <si>
-    <t>CGC24211</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>CGH1736</t>
   </si>
 </sst>
 </file>
@@ -78,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,8 +97,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,60 +121,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -184,21 +143,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -207,15 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,8 +189,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +433,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,30 +513,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -541,142 +538,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,13 +1012,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="22.8888888888889" customWidth="1"/>
@@ -1146,15 +1143,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/File/TESTCASES_CUBE_LOGIN.xlsx
+++ b/File/TESTCASES_CUBE_LOGIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t xml:space="preserve">TESTCASE</t>
   </si>
@@ -38,43 +38,40 @@
     <t xml:space="preserve">MESSAGE</t>
   </si>
   <si>
+    <t xml:space="preserve">To Verify Login with empty Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc1234#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Login Id or Password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with both empty fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with invalid Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGC24221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgc24221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGH1736</t>
+  </si>
+  <si>
     <t xml:space="preserve">To Verify Login with whitespace in Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 CGC24211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc1234#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with empty Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Login Id or Password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with both empty fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with invalid Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGC24221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with invalid Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgc24221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with valid credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGH1736</t>
   </si>
   <si>
     <t xml:space="preserve">               CGC5606 </t>
@@ -186,15 +183,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.91015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.67"/>
@@ -223,7 +220,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -231,39 +228,42 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,7 +271,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>13</v>
@@ -279,8 +279,8 @@
       <c r="D5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,7 +288,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
@@ -296,27 +296,11 @@
       <c r="D6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -335,11 +319,15 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.84"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -360,13 +348,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -375,87 +363,87 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/File/TESTCASES_CUBE_LOGIN.xlsx
+++ b/File/TESTCASES_CUBE_LOGIN.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t xml:space="preserve">TESTCASE</t>
   </si>
@@ -38,43 +38,46 @@
     <t xml:space="preserve">MESSAGE</t>
   </si>
   <si>
+    <t xml:space="preserve">To Verify Login with whitespace in Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc1234#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Login Id or Password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with both empty fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with invalid Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGC24221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgc24221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGH1736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with whitespace in Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               CGC5606 </t>
+  </si>
+  <si>
     <t xml:space="preserve">To Verify Login with empty Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc1234#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Login Id or Password.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with both empty fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with invalid Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGC24221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with invalid Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgc24221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with valid credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGH1736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with whitespace in Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               CGC5606 </t>
   </si>
   <si>
     <t xml:space="preserve">CGC5606</t>
@@ -189,7 +192,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.91015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.89"/>
@@ -323,10 +326,10 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,7 +366,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5</v>
@@ -437,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>

--- a/File/TESTCASES_CUBE_LOGIN.xlsx
+++ b/File/TESTCASES_CUBE_LOGIN.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="salaryRemi" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t xml:space="preserve">TESTCASE</t>
   </si>
@@ -188,7 +189,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -323,10 +324,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.83"/>
@@ -458,4 +459,149 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/File/TESTCASES_CUBE_LOGIN.xlsx
+++ b/File/TESTCASES_CUBE_LOGIN.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="salaryRemi" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="LOAN" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
   <si>
     <t xml:space="preserve">TESTCASE</t>
   </si>
@@ -82,6 +83,45 @@
   </si>
   <si>
     <t xml:space="preserve">CGC5606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement -To Verify Login with whitespace in Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement-To Verify Login with empty Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement - To Verify Login with both empty fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement – To Verify Login with invalid Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement – To Verify Login with invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimbursement – To Verify Login with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOANSTATAIONARY -To Verify Login with whitespace in Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOANSTATAIONARY-To Verify Login with empty Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOANSTATAIONARY - To Verify Login with both empty fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOANSTATAIONARY – To Verify Login with invalid Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOANSTATAIONARY – To Verify Login with invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOANSTATAIONARY – To Verify Login with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgh1179</t>
   </si>
 </sst>
 </file>
@@ -468,8 +508,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,7 +537,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
@@ -512,7 +552,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5</v>
@@ -529,7 +569,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4</v>
@@ -546,7 +586,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -563,7 +603,7 @@
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
@@ -580,13 +620,154 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>

--- a/File/TESTCASES_CUBE_LOGIN.xlsx
+++ b/File/TESTCASES_CUBE_LOGIN.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="salaryRemi" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="LOAN" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="DriverFinance" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
   <si>
     <t xml:space="preserve">TESTCASE</t>
   </si>
@@ -40,7 +41,7 @@
     <t xml:space="preserve">MESSAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">To Verify Login with whitespace in Password</t>
+    <t xml:space="preserve">DEPARTMENT-To Verify Login with white space in Password</t>
   </si>
   <si>
     <t xml:space="preserve">.</t>
@@ -52,36 +53,48 @@
     <t xml:space="preserve">Invalid Login Id or Password.</t>
   </si>
   <si>
+    <t xml:space="preserve">DEPARTMENT-To Verify Login with both empty fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTMENT-To Verify Login with invalid Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGC24221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTMENT-To Verify Login with invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgc24221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTMENT-To Verify Login with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGH1736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with whitespace in Login ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               CGC5606 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Verify Login with empty Login ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">To Verify Login with both empty fields</t>
   </si>
   <si>
     <t xml:space="preserve">To Verify Login with invalid Login ID</t>
   </si>
   <si>
-    <t xml:space="preserve">CGC24221</t>
-  </si>
-  <si>
     <t xml:space="preserve">To Verify Login with invalid Password</t>
   </si>
   <si>
-    <t xml:space="preserve">cgc24221</t>
-  </si>
-  <si>
     <t xml:space="preserve">To Verify Login with valid credentials</t>
   </si>
   <si>
-    <t xml:space="preserve">CGH1736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with whitespace in Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               CGC5606 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify Login with empty Login ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">CGC5606</t>
   </si>
   <si>
@@ -103,25 +116,208 @@
     <t xml:space="preserve">Reimbursement – To Verify Login with valid credentials</t>
   </si>
   <si>
-    <t xml:space="preserve">LOANSTATAIONARY -To Verify Login with whitespace in Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOANSTATAIONARY-To Verify Login with empty Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOANSTATAIONARY - To Verify Login with both empty fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOANSTATAIONARY – To Verify Login with invalid Login ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOANSTATAIONARY – To Verify Login with invalid Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOANSTATAIONARY – To Verify Login with valid credentials</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">STATIONARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - To Verify Login with whitespace in Login ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">STATIONARY –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> To Verify Login with empty Login ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">STATIONARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - To Verify Login with both empty fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">STATIONARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> – To Verify Login with invalid Login ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">STATIONARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> – To Verify Login with invalid Password</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">STATIONARY – To Verify Login with valid credentials</t>
   </si>
   <si>
     <t xml:space="preserve">cgh1179</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Driver Finance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">- To Verify Login with whitespace in Login ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Driver Finance –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> To Verify Login with empty Login ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Driver Finance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - To Verify Login with both empty fields</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver Finance– To Verify Login with invalid Login ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Driver Finance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> – To Verify Login with invalid Password</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver Finance– To Verify Login with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGC20149</t>
   </si>
 </sst>
 </file>
@@ -131,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +348,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -197,7 +399,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,6 +410,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -424,7 +630,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4</v>
@@ -441,7 +647,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -458,7 +664,7 @@
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
@@ -475,13 +681,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -537,7 +743,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
@@ -552,7 +758,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5</v>
@@ -569,7 +775,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4</v>
@@ -586,7 +792,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -603,7 +809,7 @@
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
@@ -620,13 +826,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -653,6 +859,150 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -676,9 +1026,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
@@ -691,9 +1041,9 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5</v>
@@ -708,9 +1058,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4</v>
@@ -727,7 +1077,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -743,8 +1093,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
+      <c r="A6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
@@ -761,13 +1111,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
